--- a/git commands.xlsx
+++ b/git commands.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="72">
   <si>
     <t>Название команды</t>
   </si>
@@ -224,6 +224,12 @@
   </si>
   <si>
     <t xml:space="preserve">отменить текущее слияние </t>
+  </si>
+  <si>
+    <t>git push --force</t>
+  </si>
+  <si>
+    <t>принудительно перезапмсать коммит на удал ветке</t>
   </si>
 </sst>
 </file>
@@ -621,8 +627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C35"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A32" sqref="A32"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -932,8 +938,12 @@
       <c r="C31" s="4"/>
     </row>
     <row r="32" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32" s="5"/>
+      <c r="A32" s="5" t="s">
+        <v>70</v>
+      </c>
+      <c r="B32" s="5" t="s">
+        <v>71</v>
+      </c>
       <c r="C32" s="4"/>
     </row>
     <row r="33" spans="1:3" s="1" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
